--- a/FerramentaFPAProfRJPManual.xlsx
+++ b/FerramentaFPAProfRJPManual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Documents\GitHub\ferramentaFPAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF6040-528E-4A15-9DAA-90C6C08864BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001B8C6-B462-40F7-804D-20BCB27D3F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>COMPONENTE FUNCIONAL BÁSICO (CFB)</t>
   </si>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>registro de tipo de chamado</t>
+  </si>
+  <si>
+    <t>ID contrato; Data Validade; Status de pagamento; CNPJ cliente; Flag suporte autorizado</t>
+  </si>
+  <si>
+    <t>ID prorocolo; nome do clinete; Telefone de contato do cliente; Email, cliente; Id; analist; Data de inclusão; descrição do problema; data de inicio do problema; prioridade; tipo do chamado; Data solução; descrição solução</t>
+  </si>
+  <si>
+    <t>Palavra chave e proridade</t>
+  </si>
+  <si>
+    <t>Palavra chave e tipo</t>
+  </si>
+  <si>
+    <t>id contrato; flag suporte autorizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID prorocolo; nome do clinete; Telefone de contato do cliente; Email, cliente; descrição do problema; data de inicio do problema; prioridade; tipo do chamado; </t>
+  </si>
+  <si>
+    <t>ID prorocolo; prioridade; tipo do chamado; Data de inclusão</t>
+  </si>
+  <si>
+    <t>descrição do problema; palavra chave; tipo do chamado</t>
+  </si>
+  <si>
+    <t>descrição do problema; palavra chave; prioridade</t>
+  </si>
+  <si>
+    <t>ID prorocolo; nome do clinete; Telefone de contato do cliente; Email, cliente; Id; analist; Data de inclusão; descrição do problema; data de inicio do problema; prioridade; tipo do chamado</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1536,7 @@
       </c>
       <c r="C5" s="12">
         <f>SUM(H9:H240)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1598,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>57</v>
       </c>
@@ -1581,12 +1611,21 @@
       <c r="D10" s="30">
         <v>1</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="30">
+        <v>5</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" ref="H10:H16" si="0">IF(AND(B10="AIE",G10="Simples"),7,IF(AND(B10="AIE",G10="Medio"),10,IF(AND(B10="AIE",G10="Complexo"),15,IF(AND(B10="ALI",G10="Simples"),7,IF(AND(B10="ALI",G10="Medio"),10,IF(AND(B10="ALI",G10="Complexo"),15,IF(AND(B10="CE",G10="Simples"),4,IF(AND(B10="CE",G10="Medio"),5,IF(AND(B10="CE",G10="Complexo"),7,IF(AND(B10="EE",G10="Simples"),3,IF(AND(B10="EE",G10="Medio"),4,IF(AND(B10="EE",G10="Complexo"),6,""))))))))))))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>58</v>
       </c>
@@ -1599,12 +1638,21 @@
       <c r="D11" s="30">
         <v>1</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>59</v>
       </c>
@@ -1617,12 +1665,21 @@
       <c r="D12" s="30">
         <v>1</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="30">
+        <v>12</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>60</v>
       </c>
@@ -1635,12 +1692,21 @@
       <c r="D13" s="30">
         <v>1</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="30">
+        <v>10</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>61</v>
       </c>
@@ -1651,10 +1717,19 @@
         <v>67</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="30">
+        <v>8</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
@@ -1667,12 +1742,21 @@
         <v>67</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="30">
+        <v>4</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>63</v>
       </c>
@@ -1685,12 +1769,21 @@
       <c r="D16" s="30">
         <v>1</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="30">
+        <v>4</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>64</v>
       </c>
@@ -1703,12 +1796,20 @@
       <c r="D17" s="30">
         <v>1</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="30">
+        <v>3</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>65</v>
       </c>
@@ -1721,10 +1822,18 @@
       <c r="D18" s="30">
         <v>1</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="30">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
@@ -1736,11 +1845,21 @@
       <c r="C19" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="30"/>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="30">
+        <v>2</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
@@ -1752,11 +1871,21 @@
       <c r="C20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="30"/>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
@@ -3987,7 +4116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4044,7 +4175,7 @@
       </c>
       <c r="F7">
         <f>'Pontos Nao Ajustados'!C5</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,7 +4194,7 @@
       </c>
       <c r="F9" s="12">
         <f>F5*F7</f>
-        <v>0</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
